--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam17-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H2">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I2">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J2">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>985.7730227741409</v>
+        <v>996.6280843242901</v>
       </c>
       <c r="R2">
-        <v>985.7730227741409</v>
+        <v>3986.51233729716</v>
       </c>
       <c r="S2">
-        <v>0.02762229298391347</v>
+        <v>0.0265200252076292</v>
       </c>
       <c r="T2">
-        <v>0.02762229298391347</v>
+        <v>0.01385790391425813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H3">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I3">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J3">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>1369.45472918893</v>
+        <v>1469.34827283177</v>
       </c>
       <c r="R3">
-        <v>1369.45472918893</v>
+        <v>8816.08963699062</v>
       </c>
       <c r="S3">
-        <v>0.03837341749463709</v>
+        <v>0.03909899173742887</v>
       </c>
       <c r="T3">
-        <v>0.03837341749463709</v>
+        <v>0.03064646807834421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H4">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I4">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J4">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>666.3532108144839</v>
+        <v>694.8205409476351</v>
       </c>
       <c r="R4">
-        <v>666.3532108144839</v>
+        <v>4168.92324568581</v>
       </c>
       <c r="S4">
-        <v>0.0186718475700327</v>
+        <v>0.01848900161508397</v>
       </c>
       <c r="T4">
-        <v>0.0186718475700327</v>
+        <v>0.01449200024395274</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H5">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I5">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J5">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>510.4983553507108</v>
+        <v>511.340580096885</v>
       </c>
       <c r="R5">
-        <v>510.4983553507108</v>
+        <v>3068.04348058131</v>
       </c>
       <c r="S5">
-        <v>0.01430464702677722</v>
+        <v>0.01360664553522719</v>
       </c>
       <c r="T5">
-        <v>0.01430464702677722</v>
+        <v>0.01066512484130125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H6">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I6">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J6">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>517.7468968933556</v>
+        <v>538.5853757942551</v>
       </c>
       <c r="R6">
-        <v>517.7468968933556</v>
+        <v>3231.512254765531</v>
       </c>
       <c r="S6">
-        <v>0.01450775802045561</v>
+        <v>0.01433162276598709</v>
       </c>
       <c r="T6">
-        <v>0.01450775802045561</v>
+        <v>0.01123337457288552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.9752447989059</v>
+        <v>20.997495</v>
       </c>
       <c r="H7">
-        <v>20.9752447989059</v>
+        <v>41.99499</v>
       </c>
       <c r="I7">
-        <v>0.1199875616979295</v>
+        <v>0.1182619877338827</v>
       </c>
       <c r="J7">
-        <v>0.1199875616979295</v>
+        <v>0.0841428544402326</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>232.2405004082065</v>
+        <v>233.5873365435825</v>
       </c>
       <c r="R7">
-        <v>232.2405004082065</v>
+        <v>934.34934617433</v>
       </c>
       <c r="S7">
-        <v>0.006507598602113455</v>
+        <v>0.00621570087252637</v>
       </c>
       <c r="T7">
-        <v>0.006507598602113455</v>
+        <v>0.003247982789490762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H8">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I8">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J8">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>776.5446400429006</v>
+        <v>846.1043388375601</v>
       </c>
       <c r="R8">
-        <v>776.5446400429006</v>
+        <v>5076.626033025361</v>
       </c>
       <c r="S8">
-        <v>0.02175951569661408</v>
+        <v>0.02251462581397141</v>
       </c>
       <c r="T8">
-        <v>0.02175951569661408</v>
+        <v>0.0176473543342863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H9">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I9">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J9">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>1078.790659882686</v>
+        <v>1247.42817151228</v>
       </c>
       <c r="R9">
-        <v>1078.790659882686</v>
+        <v>11226.85354361052</v>
       </c>
       <c r="S9">
-        <v>0.0302287352028869</v>
+        <v>0.03319375308959091</v>
       </c>
       <c r="T9">
-        <v>0.0302287352028869</v>
+        <v>0.03902675935835333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H10">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I10">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J10">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>524.9210541156416</v>
+        <v>589.87969901314</v>
       </c>
       <c r="R10">
-        <v>524.9210541156416</v>
+        <v>5308.91729111826</v>
       </c>
       <c r="S10">
-        <v>0.01470878469508398</v>
+        <v>0.01569655193682759</v>
       </c>
       <c r="T10">
-        <v>0.01470878469508398</v>
+        <v>0.01845484460708853</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H11">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I11">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J11">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>402.1460847880587</v>
+        <v>434.11127004014</v>
       </c>
       <c r="R11">
-        <v>402.1460847880587</v>
+        <v>3907.00143036126</v>
       </c>
       <c r="S11">
-        <v>0.0112685138664974</v>
+        <v>0.01155159282129398</v>
       </c>
       <c r="T11">
-        <v>0.0112685138664974</v>
+        <v>0.01358150830445543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H12">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I12">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J12">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>407.8561376633428</v>
+        <v>457.2412020708201</v>
       </c>
       <c r="R12">
-        <v>407.8561376633428</v>
+        <v>4115.170818637381</v>
       </c>
       <c r="S12">
-        <v>0.0114285149517684</v>
+        <v>0.01216707455430201</v>
       </c>
       <c r="T12">
-        <v>0.0114285149517684</v>
+        <v>0.01430514619555907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.523290398372</v>
+        <v>17.82618</v>
       </c>
       <c r="H13">
-        <v>16.523290398372</v>
+        <v>53.47854</v>
       </c>
       <c r="I13">
-        <v>0.09452043802754007</v>
+        <v>0.100400523038676</v>
       </c>
       <c r="J13">
-        <v>0.09452043802754007</v>
+        <v>0.1071517580286638</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>182.9479115642164</v>
+        <v>198.30793658703</v>
       </c>
       <c r="R13">
-        <v>182.9479115642164</v>
+        <v>1189.84761952218</v>
       </c>
       <c r="S13">
-        <v>0.005126373614689306</v>
+        <v>0.005276924822690141</v>
       </c>
       <c r="T13">
-        <v>0.005126373614689306</v>
+        <v>0.004136145228921195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H14">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I14">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J14">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>2158.697832236486</v>
+        <v>2207.61015111695</v>
       </c>
       <c r="R14">
-        <v>2158.697832236486</v>
+        <v>13245.6609067017</v>
       </c>
       <c r="S14">
-        <v>0.0604887561418254</v>
+        <v>0.05874395652409644</v>
       </c>
       <c r="T14">
-        <v>0.0604887561418254</v>
+        <v>0.04604453231176208</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H15">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I15">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J15">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>2998.904298402045</v>
+        <v>3254.722813504519</v>
       </c>
       <c r="R15">
-        <v>2998.904298402045</v>
+        <v>29292.50532154067</v>
       </c>
       <c r="S15">
-        <v>0.08403213645273204</v>
+        <v>0.08660736378556616</v>
       </c>
       <c r="T15">
-        <v>0.08403213645273204</v>
+        <v>0.1018265315162743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H16">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I16">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J16">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>1459.215456759995</v>
+        <v>1539.082535929682</v>
       </c>
       <c r="R16">
-        <v>1459.215456759995</v>
+        <v>13851.74282336714</v>
       </c>
       <c r="S16">
-        <v>0.04088859802619568</v>
+        <v>0.04095460311772217</v>
       </c>
       <c r="T16">
-        <v>0.04088859802619568</v>
+        <v>0.04815139270869077</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H17">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I17">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J17">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>1117.916262259454</v>
+        <v>1132.659888934659</v>
       </c>
       <c r="R17">
-        <v>1117.916262259454</v>
+        <v>10193.93900041194</v>
       </c>
       <c r="S17">
-        <v>0.03132507160797717</v>
+        <v>0.0301397976624183</v>
       </c>
       <c r="T17">
-        <v>0.03132507160797717</v>
+        <v>0.03543614448495482</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H18">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I18">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J18">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>1133.789501385991</v>
+        <v>1193.009269503641</v>
       </c>
       <c r="R18">
-        <v>1133.789501385991</v>
+        <v>10737.08342553277</v>
       </c>
       <c r="S18">
-        <v>0.03176985478993426</v>
+        <v>0.03174567965503675</v>
       </c>
       <c r="T18">
-        <v>0.03176985478993426</v>
+        <v>0.03732422173595679</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.9326989397661</v>
+        <v>46.51111466666666</v>
       </c>
       <c r="H19">
-        <v>45.9326989397661</v>
+        <v>139.533344</v>
       </c>
       <c r="I19">
-        <v>0.2627551001585968</v>
+        <v>0.2619596705320584</v>
       </c>
       <c r="J19">
-        <v>0.2627551001585968</v>
+        <v>0.279574631491778</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>508.5725143683282</v>
+        <v>517.4144532316747</v>
       </c>
       <c r="R19">
-        <v>508.5725143683282</v>
+        <v>3104.486719390048</v>
       </c>
       <c r="S19">
-        <v>0.01425068313993226</v>
+        <v>0.01376826978721862</v>
       </c>
       <c r="T19">
-        <v>0.01425068313993226</v>
+        <v>0.01079180873413934</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H20">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I20">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J20">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>3059.228417163296</v>
+        <v>3104.205119683616</v>
       </c>
       <c r="R20">
-        <v>3059.228417163296</v>
+        <v>18625.2307181017</v>
       </c>
       <c r="S20">
-        <v>0.0857224753481204</v>
+        <v>0.08260212542522943</v>
       </c>
       <c r="T20">
-        <v>0.0857224753481204</v>
+        <v>0.06474497902779287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H21">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I21">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J21">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>4249.938603273513</v>
+        <v>4576.590307722571</v>
       </c>
       <c r="R21">
-        <v>4249.938603273513</v>
+        <v>41189.31276950315</v>
       </c>
       <c r="S21">
-        <v>0.1190873015908875</v>
+        <v>0.1217819287202642</v>
       </c>
       <c r="T21">
-        <v>0.1190873015908875</v>
+        <v>0.1431821829105634</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H22">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I22">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J22">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>2067.947317786093</v>
+        <v>2164.162855126981</v>
       </c>
       <c r="R22">
-        <v>2067.947317786093</v>
+        <v>19477.46569614282</v>
       </c>
       <c r="S22">
-        <v>0.05794584084522372</v>
+        <v>0.05758783479425526</v>
       </c>
       <c r="T22">
-        <v>0.05794584084522372</v>
+        <v>0.0677075160623756</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H23">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I23">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J23">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>1584.270455291048</v>
+        <v>1592.676417216286</v>
       </c>
       <c r="R23">
-        <v>1584.270455291048</v>
+        <v>14334.08775494657</v>
       </c>
       <c r="S23">
-        <v>0.04439275743076794</v>
+        <v>0.0423807229562566</v>
       </c>
       <c r="T23">
-        <v>0.04439275743076794</v>
+        <v>0.04982811891691548</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H24">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I24">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J24">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>1606.76543512712</v>
+        <v>1677.535990831303</v>
       </c>
       <c r="R24">
-        <v>1606.76543512712</v>
+        <v>15097.82391748173</v>
       </c>
       <c r="S24">
-        <v>0.04502308805388701</v>
+        <v>0.04463881508387783</v>
       </c>
       <c r="T24">
-        <v>0.04502308805388701</v>
+        <v>0.05248301659708474</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>65.0941580498817</v>
+        <v>65.40105833333332</v>
       </c>
       <c r="H25">
-        <v>65.0941580498817</v>
+        <v>196.203175</v>
       </c>
       <c r="I25">
-        <v>0.3723670155016433</v>
+        <v>0.3683515180453484</v>
       </c>
       <c r="J25">
-        <v>0.3723670155016433</v>
+        <v>0.3931205887830068</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>720.7305556664568</v>
+        <v>727.5562643646207</v>
       </c>
       <c r="R25">
-        <v>720.7305556664568</v>
+        <v>4365.337586187725</v>
       </c>
       <c r="S25">
-        <v>0.0201955522327567</v>
+        <v>0.01936009106546509</v>
       </c>
       <c r="T25">
-        <v>0.0201955522327567</v>
+        <v>0.01517477526827472</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H26">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I26">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J26">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>646.7887969935376</v>
+        <v>676.4536199787153</v>
       </c>
       <c r="R26">
-        <v>646.7887969935376</v>
+        <v>4058.721719872292</v>
       </c>
       <c r="S26">
-        <v>0.01812363417999705</v>
+        <v>0.01800026242065064</v>
       </c>
       <c r="T26">
-        <v>0.01812363417999705</v>
+        <v>0.01410891798389287</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H27">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I27">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J27">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>898.5313620538798</v>
+        <v>997.3087993405437</v>
       </c>
       <c r="R27">
-        <v>898.5313620538798</v>
+        <v>8975.779194064893</v>
       </c>
       <c r="S27">
-        <v>0.02517769908943198</v>
+        <v>0.02653813886474383</v>
       </c>
       <c r="T27">
-        <v>0.02517769908943198</v>
+        <v>0.03120158050514937</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H28">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I28">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J28">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>437.2099678510162</v>
+        <v>471.6040793474775</v>
       </c>
       <c r="R28">
-        <v>437.2099678510162</v>
+        <v>4244.436714127297</v>
       </c>
       <c r="S28">
-        <v>0.01225103705260878</v>
+        <v>0.01254926714291373</v>
       </c>
       <c r="T28">
-        <v>0.01225103705260878</v>
+        <v>0.01475449996836197</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H29">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I29">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J29">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>334.9499423257368</v>
+        <v>347.0684720700719</v>
       </c>
       <c r="R29">
-        <v>334.9499423257368</v>
+        <v>3123.616248630647</v>
       </c>
       <c r="S29">
-        <v>0.009385614363669036</v>
+        <v>0.009235405637110974</v>
       </c>
       <c r="T29">
-        <v>0.009385614363669036</v>
+        <v>0.01085830675439153</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H30">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I30">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J30">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>339.7058804129156</v>
+        <v>365.5606668666513</v>
       </c>
       <c r="R30">
-        <v>339.7058804129156</v>
+        <v>3290.046001799861</v>
       </c>
       <c r="S30">
-        <v>0.009518880249651297</v>
+        <v>0.009727478336910693</v>
       </c>
       <c r="T30">
-        <v>0.009518880249651297</v>
+        <v>0.01143684943349343</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>13.7623499900115</v>
+        <v>14.25188766666667</v>
       </c>
       <c r="H31">
-        <v>13.7623499900115</v>
+        <v>42.755663</v>
       </c>
       <c r="I31">
-        <v>0.07872665298386122</v>
+        <v>0.08026941139502627</v>
       </c>
       <c r="J31">
-        <v>0.07872665298386122</v>
+        <v>0.0856669695195698</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N31">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O31">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P31">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q31">
-        <v>152.3784384456797</v>
+        <v>158.5456017860702</v>
       </c>
       <c r="R31">
-        <v>152.3784384456797</v>
+        <v>951.273610716421</v>
       </c>
       <c r="S31">
-        <v>0.004269788048503088</v>
+        <v>0.004218858992696406</v>
       </c>
       <c r="T31">
-        <v>0.004269788048503088</v>
+        <v>0.003306814874280645</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H32">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I32">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J32">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N32">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O32">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P32">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q32">
-        <v>588.594050968656</v>
+        <v>596.2888358484861</v>
       </c>
       <c r="R32">
-        <v>588.594050968656</v>
+        <v>2385.155343393944</v>
       </c>
       <c r="S32">
-        <v>0.01649296232381255</v>
+        <v>0.01586709747242501</v>
       </c>
       <c r="T32">
-        <v>0.01649296232381255</v>
+        <v>0.008291270858512532</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H33">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I33">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J33">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N33">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P33">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q33">
-        <v>817.6861083123574</v>
+        <v>879.1202905513846</v>
       </c>
       <c r="R33">
-        <v>817.6861083123574</v>
+        <v>5274.721743308309</v>
       </c>
       <c r="S33">
-        <v>0.02291233857173113</v>
+        <v>0.02339317206956699</v>
       </c>
       <c r="T33">
-        <v>0.02291233857173113</v>
+        <v>0.01833597413190846</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H34">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I34">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J34">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N34">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O34">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P34">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q34">
-        <v>397.8720523569561</v>
+        <v>415.7154890594757</v>
       </c>
       <c r="R34">
-        <v>397.8720523569561</v>
+        <v>2494.292934356854</v>
       </c>
       <c r="S34">
-        <v>0.01114875143304956</v>
+        <v>0.011062085669133</v>
       </c>
       <c r="T34">
-        <v>0.01114875143304956</v>
+        <v>0.008670654670986324</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H35">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I35">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J35">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N35">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O35">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P35">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q35">
-        <v>304.8128606148275</v>
+        <v>305.9382773010923</v>
       </c>
       <c r="R35">
-        <v>304.8128606148275</v>
+        <v>1835.629663806554</v>
       </c>
       <c r="S35">
-        <v>0.008541144813917918</v>
+        <v>0.008140941393904767</v>
       </c>
       <c r="T35">
-        <v>0.008541144813917918</v>
+        <v>0.006381011107177464</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H36">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I36">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J36">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N36">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O36">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P36">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q36">
-        <v>309.140883731339</v>
+        <v>322.2390095048504</v>
       </c>
       <c r="R36">
-        <v>309.140883731339</v>
+        <v>1933.434057029102</v>
       </c>
       <c r="S36">
-        <v>0.008662420117464972</v>
+        <v>0.008574699819686608</v>
       </c>
       <c r="T36">
-        <v>0.008662420117464972</v>
+        <v>0.006720998486870191</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.5240841664582</v>
+        <v>12.562933</v>
       </c>
       <c r="H37">
-        <v>12.5240841664582</v>
+        <v>25.125866</v>
       </c>
       <c r="I37">
-        <v>0.07164323163042896</v>
+        <v>0.07075688925500828</v>
       </c>
       <c r="J37">
-        <v>0.07164323163042896</v>
+        <v>0.05034319773674883</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N37">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O37">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P37">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q37">
-        <v>138.6682063479166</v>
+        <v>139.7567690167555</v>
       </c>
       <c r="R37">
-        <v>138.6682063479166</v>
+        <v>559.027076067022</v>
       </c>
       <c r="S37">
-        <v>0.003885614370452825</v>
+        <v>0.003718892830291915</v>
       </c>
       <c r="T37">
-        <v>0.003885614370452825</v>
+        <v>0.001943288481293866</v>
       </c>
     </row>
   </sheetData>
